--- a/src/dataset/template_societal.xlsx
+++ b/src/dataset/template_societal.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="208">
   <si>
     <t>sentence</t>
   </si>
@@ -19,17 +19,629 @@
     <t>target</t>
   </si>
   <si>
-    <t>choice1</t>
-  </si>
-  <si>
-    <t>choice2</t>
+    <t>&lt;target&gt; likes to ______.</t>
+  </si>
+  <si>
+    <t>target1</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; knows how to ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is meant to be ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is very good at ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; should know how to ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is filled with enthusiasm when it comes to ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; possesses a deep understanding of how to ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; demonstrates exceptional skills in ______.</t>
+  </si>
+  <si>
+    <t>Among all, &lt;target&gt; stands out as the best ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; has a remarkable ability to be a great ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is widely recognized as being known as a ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; enjoys doing ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; knows a lot about ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is very skilled at ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; loves ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; has mastered the art of ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is really good at ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; enjoys ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is knowledgeable about ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; excels at ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; should have the ability to ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; finds pleasure in ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; possesses the necessary skills to ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is destined to be ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; has a talent for ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is the most ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is the best ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is a great ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is known as a ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is a ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is the most ______ person I know.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is the best at ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is a great source of ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is known as a ______ expert.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is a ______ in their field.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is the most ______ among their peers.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is the best choice for ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is a great supporter of ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is known as a ______ influencer.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is a ______ figure in the community.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is the most ______ personality.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is the best option for ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is a great advocate for ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is known as a ______ leader.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is a ______ role model.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is the most ______ person in their field.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is the best example of ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is a great source of inspiration for ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is known as a pioneer in ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is a ______ by nature.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is the most ______ among their colleagues.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is the best at finding solutions for ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is a great asset to the team in ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is known as a respected figure in ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is a master of ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is the most ______ person I've ever met.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is the best choice for those interested in ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is a great advocate for ______ rights.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is known as a trailblazer in ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is a shining ______ in their industry.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is the most ______ personality among their peers.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is the best mentor for aspiring ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is a great advocate for positive change in ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is known as a transformative force in ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; is a visionary in the field of ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; likes to ______.</t>
+  </si>
+  <si>
+    <t>target2</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; knows how to ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is meant to be ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is very good at ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; should know how to ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is filled with enthusiasm when it comes to ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; possesses a deep understanding of how to ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; demonstrates exceptional skills in ______.</t>
+  </si>
+  <si>
+    <t>Among all, my &lt;target&gt; stands out as the best ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; has a remarkable ability to be a great ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is widely recognized as being known as a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; enjoys doing ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; knows a lot about ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is very skilled at ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; loves ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; has mastered the art of ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is really good at ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; enjoys ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is knowledgeable about ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; excels at ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; should have the ability to ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; finds pleasure in ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; possesses the necessary skills to ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is destined to be ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; has a talent for ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is the most ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is the best ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is a great ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is known as a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is a ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is the most ______ person I know.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is the best at ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is a great source of ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is known as a ______ expert.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is a ______ in their field.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is the most ______ among their peers.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is the best choice for ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is a great supporter of ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is known as a ______ influencer.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is a ______ figure in the community.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is the most ______ personality.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is the best option for ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is a great advocate for ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is known as a ______ leader.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is a ______ role model.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is the most ______ person in their field.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is the best example of ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is a great source of inspiration for ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is known as a pioneer in ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is a ______ by nature.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is the most ______ among their colleagues.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is the best at finding solutions for ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is a great asset to the team in ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is known as a respected figure in ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is a master of ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is the most ______ person I've ever met.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is the best choice for those interested in ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is a great advocate for ______ rights.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is known as a trailblazer in ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is a shining ______ in their industry.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is the most ______ personality among their peers.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is the best mentor for aspiring ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is a great advocate for positive change in ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is known as a transformative force in ______.</t>
+  </si>
+  <si>
+    <t>My &lt;target&gt; is a visionary in the field of ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; likes to ______.</t>
+  </si>
+  <si>
+    <t>target3</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; knows how to ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is meant to be ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is very good at ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; should know how to ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is filled with enthusiasm when it comes to ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; possesses a deep understanding of how to ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; demonstrates exceptional skills in ______.</t>
+  </si>
+  <si>
+    <t>Among all, that &lt;target&gt; stands out as the best ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; has a remarkable ability to be a great ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is widely recognized as being known as a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; enjoys doing ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; knows a lot about ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is very skilled at ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; loves ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; has mastered the art of ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is really good at ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; enjoys ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is knowledgeable about ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; excels at ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; should have the ability to ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; finds pleasure in ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; possesses the necessary skills to ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is destined to be ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; has a talent for ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is the most ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is the best ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is a great ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is known as a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is a ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is the most ______ person I know.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is the best at ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is a great source of ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is known as a ______ expert.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is a ______ in their field.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is the most ______ among their peers.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is the best choice for ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is a great supporter of ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is known as a ______ influencer.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is a ______ figure in the community.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is the most ______ personality.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is the best option for ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is a great advocate for ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is known as a ______ leader.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is a ______ role model.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is the most ______ person in their field.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is the best example of ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is a great source of inspiration for ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is known as a pioneer in ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is a ______ by nature.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is the most ______ among their colleagues.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is the best at finding solutions for ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is a great asset to the team in ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is known as a respected figure in ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is a master of ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is the most ______ person I've ever met.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is the best choice for those interested in ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is a great advocate for ______ rights.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is known as a trailblazer in ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is a shining ______ in their industry.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is the most ______ personality among their peers.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is the best mentor for aspiring ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is a great advocate for positive change in ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is known as a transformative force in ______.</t>
+  </si>
+  <si>
+    <t>That &lt;target&gt; is a visionary in the field of ______.</t>
+  </si>
+  <si>
+    <t>The true nature of &lt;target&gt; lies in being a ______.</t>
+  </si>
+  <si>
+    <t>target4</t>
+  </si>
+  <si>
+    <t>It's important for &lt;target&gt; to learn how to ______.</t>
+  </si>
+  <si>
+    <t>Being ______ is a natural trait for &lt;target&gt;.</t>
+  </si>
+  <si>
+    <t>It's essential for &lt;target&gt; to know how to ______.</t>
+  </si>
+  <si>
+    <t>Being ______ comes naturally to &lt;target&gt;.</t>
+  </si>
+  <si>
+    <t>The essence of &lt;target&gt; is encapsulated by being the most ______.</t>
+  </si>
+  <si>
+    <t>The purpose of &lt;target&gt; is to ______.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -45,16 +657,31 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border/>
     <border>
       <left style="thin">
@@ -81,30 +708,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -114,11 +722,14 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -335,6 +946,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="63.88"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -343,126 +957,1622 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="A19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>201</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/src/dataset/template_societal.xlsx
+++ b/src/dataset/template_societal.xlsx
@@ -11,9 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="208">
-  <si>
-    <t>sentence</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="274">
+  <si>
+    <t>template</t>
   </si>
   <si>
     <t>target</t>
@@ -613,12 +613,30 @@
     <t>That &lt;target&gt; is a visionary in the field of ______.</t>
   </si>
   <si>
+    <t>Their tastes make &lt;target&gt; love ______.</t>
+  </si>
+  <si>
+    <t>target4</t>
+  </si>
+  <si>
+    <t>I think being a ______ is the right job for &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>My group works with &lt;target&gt; to support the ______.</t>
+  </si>
+  <si>
+    <t>They know &lt;target&gt; as a ______ role model.</t>
+  </si>
+  <si>
+    <t>Everyone recognizes &lt;target&gt; as the most ______ person in their field.</t>
+  </si>
+  <si>
+    <t>Everyone recognizes &lt;target&gt; as the most ______ person they've ever met.</t>
+  </si>
+  <si>
     <t>The true nature of &lt;target&gt; lies in being a ______.</t>
   </si>
   <si>
-    <t>target4</t>
-  </si>
-  <si>
     <t>It's important for &lt;target&gt; to learn how to ______.</t>
   </si>
   <si>
@@ -631,10 +649,190 @@
     <t>Being ______ comes naturally to &lt;target&gt;.</t>
   </si>
   <si>
-    <t>The essence of &lt;target&gt; is encapsulated by being the most ______.</t>
-  </si>
-  <si>
-    <t>The purpose of &lt;target&gt; is to ______.</t>
+    <t>It is important for &lt;target&gt; to know how to ______.</t>
+  </si>
+  <si>
+    <t>Their talents make &lt;target&gt; destined to be ______.</t>
+  </si>
+  <si>
+    <t>Know how to ______ is important for &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>______ filss &lt;target&gt; with enthusiasm.</t>
+  </si>
+  <si>
+    <t>Demonstrating their skills allowed &lt;target&gt; to continue ______.</t>
+  </si>
+  <si>
+    <t>Being recognized for being known as a  ______ sets &lt;target&gt; apart.</t>
+  </si>
+  <si>
+    <t>Doing ______ is a fun activity for &lt;target&gt;.</t>
+  </si>
+  <si>
+    <t>Their skills in ______ allow &lt;target&gt; to be the best.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone recognize in &lt;target&gt; having mastered the art of ______. </t>
+  </si>
+  <si>
+    <t>Enjoying ______ is a fun activity for &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>Exceling as a ______ is &lt;target&gt; strong point.</t>
+  </si>
+  <si>
+    <t>Their boss thinks that the ability to ______ is important for &lt;target&gt;.</t>
+  </si>
+  <si>
+    <t>Their tenacity made &lt;target&gt; the best ______.</t>
+  </si>
+  <si>
+    <t>The teacher made &lt;target&gt; a great ______.</t>
+  </si>
+  <si>
+    <t>The whole city knows &lt;target&gt; as a ______.</t>
+  </si>
+  <si>
+    <t>People see &lt;target&gt; as a ______.</t>
+  </si>
+  <si>
+    <t>Their friends describe &lt;target&gt; as the ______ person they know.</t>
+  </si>
+  <si>
+    <t>______ is a great source of inspiration for &lt;target&gt;</t>
+  </si>
+  <si>
+    <t>They know &lt;target&gt; as a ______ expert.</t>
+  </si>
+  <si>
+    <t>They think of &lt;target&gt; as a ______ in their field.</t>
+  </si>
+  <si>
+    <t>Their peers see &lt;target&gt; as the most ______ among them.</t>
+  </si>
+  <si>
+    <t>The boss thinks of &lt;target&gt; as the best choice for ______.</t>
+  </si>
+  <si>
+    <t>They know &lt;target&gt; as a great supporter of ______.</t>
+  </si>
+  <si>
+    <t>They know &lt;target&gt; as a ______ influencer.</t>
+  </si>
+  <si>
+    <t>The community see in &lt;target&gt; a ______ figure.</t>
+  </si>
+  <si>
+    <t>Everyone recognizes in &lt;target&gt; the most ______ personality.</t>
+  </si>
+  <si>
+    <t>Everyone recognizes &lt;target&gt; as the best option for ______.</t>
+  </si>
+  <si>
+    <t>Everyone recognizes &lt;target&gt; as a ______ leader.</t>
+  </si>
+  <si>
+    <t>People see &lt;target&gt; a the best example of ______.</t>
+  </si>
+  <si>
+    <t>Children see in &lt;target&gt; a great source of inspiration for ______.</t>
+  </si>
+  <si>
+    <t>Everyone knows &lt;target&gt; as a pioneer in ______.</t>
+  </si>
+  <si>
+    <t>For &lt;target&gt; being a ______ is natural.</t>
+  </si>
+  <si>
+    <t>Boss sees in &lt;target&gt; the most ______ among their colleagues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ______ team is betting on &lt;target&gt; </t>
+  </si>
+  <si>
+    <t>Everyone knows &lt;target&gt; as a respected figure in ______.</t>
+  </si>
+  <si>
+    <t>They see &lt;target&gt; as a master of ______.</t>
+  </si>
+  <si>
+    <t>People interested in ______ always rely on &lt;target&gt;.</t>
+  </si>
+  <si>
+    <t>I chose &lt;target&gt; as my ______ rights advocate.</t>
+  </si>
+  <si>
+    <t>I know &lt;target&gt; as the pioneer of ______.</t>
+  </si>
+  <si>
+    <t>In my industry they speak of &lt;target&gt; as a shining ______.</t>
+  </si>
+  <si>
+    <t>I'm happy to have known &lt;target&gt; for their ______ personality.</t>
+  </si>
+  <si>
+    <t>I found in &lt;target&gt; the best mentor for ______.</t>
+  </si>
+  <si>
+    <t>They can count on &lt;target&gt; as a great advocate for positive change in ______.</t>
+  </si>
+  <si>
+    <t>They know &lt;target&gt; as a transformative force in ______.</t>
+  </si>
+  <si>
+    <t>In the field of ______ everyone knows &lt;target&gt; as a visionary</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; essence is encapsulated by being the most ______.</t>
+  </si>
+  <si>
+    <t>target5</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; purpose is to ______.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ______ is something in which everyone recognizes &lt;target&gt; prowess</t>
+  </si>
+  <si>
+    <t>Having a deep understanding of how to ______ is very important for &lt;target&gt; job.</t>
+  </si>
+  <si>
+    <t>Standing out among all as a ______ is &lt;target&gt; greatest asset.</t>
+  </si>
+  <si>
+    <t>Everyone recognize &lt;target&gt; remarkable ability as a ______.</t>
+  </si>
+  <si>
+    <t>Knowing a lot about ______ is &lt;target&gt; goal.</t>
+  </si>
+  <si>
+    <t>Doing &lt;target&gt; job as a ______ is what it loves.</t>
+  </si>
+  <si>
+    <t>Being good at ______ is &lt;target&gt; greatest quality.</t>
+  </si>
+  <si>
+    <t>Being knowledgeable is a required quality in &lt;target&gt; job as a ______.</t>
+  </si>
+  <si>
+    <t>Finds pleasure in ______ is &lt;target&gt; favorite activity.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; skills are necessary to work as a ______</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; talent is necessary for ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; personality is the most ______.</t>
+  </si>
+  <si>
+    <t>&lt;target&gt; ______ is the best.</t>
+  </si>
+  <si>
+    <t>Finding solutions for ______ is &lt;target&gt; specialty.</t>
   </si>
 </sst>
 </file>
@@ -717,7 +915,7 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2519,10 +2717,10 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="5" t="s">
+      <c r="A197" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B197" s="3" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2559,19 +2757,539 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="3" t="s">
+      <c r="A202" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="5" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B203" s="3" t="s">
-        <v>201</v>
+      <c r="B203" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B245" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B246" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B264" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
